--- a/REGULAR/OJT/ESTRANGCO, MERCY.xlsx
+++ b/REGULAR/OJT/ESTRANGCO, MERCY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7176171E-4FC8-4BC0-9E13-251D2DA51309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8134E19A-D480-4D73-B2AD-0DC3088168F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,23 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="202">
   <si>
     <t>PERIOD</t>
   </si>
@@ -645,6 +634,12 @@
   </si>
   <si>
     <t>MAHOGANY MARKET</t>
+  </si>
+  <si>
+    <t>7-3-7/2023</t>
+  </si>
+  <si>
+    <t>7/10-14/2023</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1311,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1333,7 +1328,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K438" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K439" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -1662,10 +1657,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K438"/>
+  <dimension ref="A2:K439"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <pane ySplit="2712" topLeftCell="A375" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E392" sqref="E392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1828,7 +1824,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>179.22000000000003</v>
+        <v>172.97000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1838,7 +1834,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>207.04200000000003</v>
+        <v>210.79200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10151,7 +10147,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B384" s="20"/>
       <c r="C384" s="13">
@@ -10171,7 +10167,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B385" s="20" t="s">
         <v>71</v>
@@ -10219,7 +10215,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B387" s="20" t="s">
         <v>45</v>
@@ -10245,16 +10241,18 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B388" s="20"/>
-      <c r="C388" s="13"/>
+      <c r="C388" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D388" s="39"/>
       <c r="E388" s="9"/>
       <c r="F388" s="20"/>
-      <c r="G388" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G388" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H388" s="39"/>
       <c r="I388" s="9"/>
@@ -10263,16 +10261,18 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B389" s="20"/>
-      <c r="C389" s="13"/>
+      <c r="C389" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D389" s="39"/>
       <c r="E389" s="9"/>
       <c r="F389" s="20"/>
-      <c r="G389" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G389" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H389" s="39"/>
       <c r="I389" s="9"/>
@@ -10281,29 +10281,39 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B390" s="20"/>
-      <c r="C390" s="13"/>
-      <c r="D390" s="39"/>
+        <v>45107</v>
+      </c>
+      <c r="B390" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C390" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D390" s="39">
+        <v>5</v>
+      </c>
       <c r="E390" s="9"/>
       <c r="F390" s="20"/>
-      <c r="G390" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G390" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H390" s="39"/>
       <c r="I390" s="9"/>
       <c r="J390" s="11"/>
-      <c r="K390" s="20"/>
+      <c r="K390" s="20" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A391" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B391" s="20"/>
+      <c r="A391" s="40"/>
+      <c r="B391" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C391" s="13"/>
-      <c r="D391" s="39"/>
+      <c r="D391" s="39">
+        <v>5</v>
+      </c>
       <c r="E391" s="9"/>
       <c r="F391" s="20"/>
       <c r="G391" s="13" t="str">
@@ -10313,11 +10323,13 @@
       <c r="H391" s="39"/>
       <c r="I391" s="9"/>
       <c r="J391" s="11"/>
-      <c r="K391" s="20"/>
+      <c r="K391" s="20" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
-        <v>45139</v>
+        <v>45138</v>
       </c>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -10335,7 +10347,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -10353,7 +10365,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
-        <v>45200</v>
+        <v>45199</v>
       </c>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -10371,7 +10383,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
-        <v>45231</v>
+        <v>45230</v>
       </c>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -10389,7 +10401,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
-        <v>45261</v>
+        <v>45260</v>
       </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -10407,7 +10419,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
-        <v>45292</v>
+        <v>45291</v>
       </c>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -10425,7 +10437,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
-        <v>45323</v>
+        <v>45322</v>
       </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -10443,7 +10455,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
-        <v>45352</v>
+        <v>45351</v>
       </c>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -10461,7 +10473,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
-        <v>45383</v>
+        <v>45382</v>
       </c>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -10479,7 +10491,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -10497,7 +10509,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
-        <v>45444</v>
+        <v>45443</v>
       </c>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -10515,7 +10527,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
-        <v>45474</v>
+        <v>45473</v>
       </c>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -10533,7 +10545,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
-        <v>45505</v>
+        <v>45504</v>
       </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -10551,7 +10563,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
-        <v>45536</v>
+        <v>45535</v>
       </c>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -10569,7 +10581,7 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
-        <v>45566</v>
+        <v>45565</v>
       </c>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -10587,7 +10599,7 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -10605,7 +10617,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -10623,7 +10635,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
-        <v>45658</v>
+        <v>45657</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -10641,7 +10653,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
-        <v>45689</v>
+        <v>45688</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -10659,7 +10671,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
-        <v>45717</v>
+        <v>45716</v>
       </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -10677,7 +10689,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
-        <v>45748</v>
+        <v>45747</v>
       </c>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -10695,7 +10707,7 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -10713,7 +10725,7 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
-        <v>45809</v>
+        <v>45808</v>
       </c>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -10731,7 +10743,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
-        <v>45839</v>
+        <v>45838</v>
       </c>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -10749,7 +10761,7 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
-        <v>45870</v>
+        <v>45869</v>
       </c>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -10767,7 +10779,7 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -10785,7 +10797,7 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
-        <v>45931</v>
+        <v>45930</v>
       </c>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -10803,7 +10815,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
-        <v>45962</v>
+        <v>45961</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -10821,7 +10833,7 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
-        <v>45992</v>
+        <v>45991</v>
       </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -10839,7 +10851,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
-        <v>46023</v>
+        <v>46022</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -10857,7 +10869,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
-        <v>46054</v>
+        <v>46053</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -10875,7 +10887,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
-        <v>46082</v>
+        <v>46081</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -10893,7 +10905,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
-        <v>46113</v>
+        <v>46112</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -10911,7 +10923,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
-        <v>46143</v>
+        <v>46142</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -10929,7 +10941,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
-        <v>46174</v>
+        <v>46173</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -10947,7 +10959,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
-        <v>46204</v>
+        <v>46203</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -10965,7 +10977,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
-        <v>46235</v>
+        <v>46234</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -10983,7 +10995,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
-        <v>46266</v>
+        <v>46265</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11001,7 +11013,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
-        <v>46296</v>
+        <v>46295</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11019,7 +11031,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
-        <v>46327</v>
+        <v>46326</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11037,7 +11049,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
-        <v>46357</v>
+        <v>46356</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11055,7 +11067,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
-        <v>46388</v>
+        <v>46387</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11073,7 +11085,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
-        <v>46419</v>
+        <v>46418</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11091,7 +11103,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
-        <v>46447</v>
+        <v>46446</v>
       </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11109,7 +11121,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
-        <v>46478</v>
+        <v>46477</v>
       </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11127,7 +11139,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
-        <v>46508</v>
+        <v>46507</v>
       </c>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11145,21 +11157,39 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
-        <v>46539</v>
-      </c>
-      <c r="B438" s="15"/>
-      <c r="C438" s="41"/>
-      <c r="D438" s="42"/>
+        <v>46538</v>
+      </c>
+      <c r="B438" s="20"/>
+      <c r="C438" s="13"/>
+      <c r="D438" s="39"/>
       <c r="E438" s="9"/>
-      <c r="F438" s="15"/>
-      <c r="G438" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H438" s="42"/>
+      <c r="F438" s="20"/>
+      <c r="G438" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H438" s="39"/>
       <c r="I438" s="9"/>
-      <c r="J438" s="12"/>
-      <c r="K438" s="15"/>
+      <c r="J438" s="11"/>
+      <c r="K438" s="20"/>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A439" s="40">
+        <v>46568</v>
+      </c>
+      <c r="B439" s="15"/>
+      <c r="C439" s="41"/>
+      <c r="D439" s="42"/>
+      <c r="E439" s="9"/>
+      <c r="F439" s="15"/>
+      <c r="G439" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H439" s="42"/>
+      <c r="I439" s="9"/>
+      <c r="J439" s="12"/>
+      <c r="K439" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11330,7 +11360,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>386.26200000000006</v>
+        <v>383.76200000000006</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
